--- a/4_example/case_study_2.0/4_additional_plots/nc25.xlsx
+++ b/4_example/case_study_2.0/4_additional_plots/nc25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\plots\plots_case_study_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\case_study_1.0\4_additional_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46A25A2-D410-4A42-82D7-612EB71921A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E90482-1A40-4D28-BA2E-01C1C0CA43A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C42BE8D3-2ED6-8F41-A59E-26DA9E08CB86}"/>
   </bookViews>
@@ -420,10 +420,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2.5397741240918899E-5</v>
+        <v>2.5384556446964999E-5</v>
       </c>
       <c r="C2" s="2">
-        <v>9.1427195469838494E-5</v>
+        <v>9.1379732637511104E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -431,10 +431,10 @@
         <v>3.1749999999999998</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5397741240922599E-5</v>
+        <v>2.5384556446971199E-5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.1427195469834902E-5</v>
+        <v>9.1379732637504897E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,10 +442,10 @@
         <v>6.35</v>
       </c>
       <c r="B4" s="2">
-        <v>2.5397741240991198E-5</v>
+        <v>2.5384556447080998E-5</v>
       </c>
       <c r="C4" s="2">
-        <v>9.1427195469766205E-5</v>
+        <v>9.1379732637395094E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,10 +453,10 @@
         <v>9.5250000000000004</v>
       </c>
       <c r="B5" s="2">
-        <v>2.53977412418462E-5</v>
+        <v>2.5384556448380699E-5</v>
       </c>
       <c r="C5" s="2">
-        <v>9.1427195468911203E-5</v>
+        <v>9.1379732636095393E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>12.7</v>
       </c>
       <c r="B6" s="2">
-        <v>2.5397741249787398E-5</v>
+        <v>2.53845564599178E-5</v>
       </c>
       <c r="C6" s="2">
-        <v>9.1427195460970099E-5</v>
+        <v>9.1379732624558303E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +475,10 @@
         <v>15.875</v>
       </c>
       <c r="B7" s="2">
-        <v>2.5397741308590001E-5</v>
+        <v>2.5384556542058E-5</v>
       </c>
       <c r="C7" s="2">
-        <v>9.1427195402167405E-5</v>
+        <v>9.1379732542418103E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +486,10 @@
         <v>19.05</v>
       </c>
       <c r="B8" s="2">
-        <v>2.5397741670721699E-5</v>
+        <v>2.5384557032248299E-5</v>
       </c>
       <c r="C8" s="2">
-        <v>9.1427195040035694E-5</v>
+        <v>9.1379732052227899E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,10 +497,10 @@
         <v>22.225000000000001</v>
       </c>
       <c r="B9" s="2">
-        <v>2.5397743580329299E-5</v>
+        <v>2.5384559566549902E-5</v>
       </c>
       <c r="C9" s="2">
-        <v>9.1427193130428104E-5</v>
+        <v>9.13797295179263E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,10 +508,10 @@
         <v>25.4</v>
       </c>
       <c r="B10" s="2">
-        <v>2.5397752399206599E-5</v>
+        <v>2.5384571187014902E-5</v>
       </c>
       <c r="C10" s="2">
-        <v>9.1427184311550902E-5</v>
+        <v>9.1379717897461306E-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,10 +519,10 @@
         <v>28.574999999999999</v>
       </c>
       <c r="B11" s="2">
-        <v>2.5397788811075101E-5</v>
+        <v>2.5384619052356099E-5</v>
       </c>
       <c r="C11" s="2">
-        <v>9.1427147899682306E-5</v>
+        <v>9.1379670032120099E-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,10 +530,10 @@
         <v>31.75</v>
       </c>
       <c r="B12" s="2">
-        <v>2.5397925925198901E-5</v>
+        <v>2.5384797590520799E-5</v>
       </c>
       <c r="C12" s="2">
-        <v>9.1427010785558499E-5</v>
+        <v>9.1379491493955405E-5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -541,10 +541,10 @@
         <v>34.924999999999997</v>
       </c>
       <c r="B13" s="2">
-        <v>2.53984028893969E-5</v>
+        <v>2.5385406136564299E-5</v>
       </c>
       <c r="C13" s="2">
-        <v>9.1426533821360503E-5</v>
+        <v>9.1378882947911906E-5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -552,10 +552,10 @@
         <v>38.1</v>
       </c>
       <c r="B14" s="2">
-        <v>2.5399943570403E-5</v>
+        <v>2.5387321774113599E-5</v>
       </c>
       <c r="C14" s="2">
-        <v>9.1424993140354498E-5</v>
+        <v>9.1376967310362602E-5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -563,10 +563,10 @@
         <v>41.274999999999999</v>
       </c>
       <c r="B15" s="2">
-        <v>2.5404598133035E-5</v>
+        <v>2.5392951088592899E-5</v>
       </c>
       <c r="C15" s="2">
-        <v>9.1420338577722501E-5</v>
+        <v>9.1371337995883197E-5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -574,10 +574,10 @@
         <v>44.45</v>
       </c>
       <c r="B16" s="2">
-        <v>2.5417882255286E-5</v>
+        <v>2.54085457731381E-5</v>
       </c>
       <c r="C16" s="2">
-        <v>9.1407054455471397E-5</v>
+        <v>9.1355743311338094E-5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -585,10 +585,10 @@
         <v>47.625</v>
       </c>
       <c r="B17" s="2">
-        <v>2.54539951609678E-5</v>
+        <v>2.5449622144687699E-5</v>
       </c>
       <c r="C17" s="2">
-        <v>9.1370941549789606E-5</v>
+        <v>9.1314666939789E-5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>50.8</v>
       </c>
       <c r="B18" s="2">
-        <v>2.55481216395711E-5</v>
+        <v>2.55532966430218E-5</v>
       </c>
       <c r="C18" s="2">
-        <v>9.1276815071186405E-5</v>
+        <v>9.1210992441454906E-5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -607,10 +607,10 @@
         <v>53.975000000000001</v>
       </c>
       <c r="B19" s="2">
-        <v>2.57842965926775E-5</v>
+        <v>2.5805837229554E-5</v>
       </c>
       <c r="C19" s="2">
-        <v>9.1040640118079998E-5</v>
+        <v>9.0958451854922706E-5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -618,10 +618,10 @@
         <v>57.15</v>
       </c>
       <c r="B20" s="2">
-        <v>2.6354904864988699E-5</v>
+        <v>2.64029694732154E-5</v>
       </c>
       <c r="C20" s="2">
-        <v>9.04700318457693E-5</v>
+        <v>9.0361319611261703E-5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
         <v>60.325000000000003</v>
       </c>
       <c r="B21" s="2">
-        <v>2.7679718175544401E-5</v>
+        <v>2.77742607234908E-5</v>
       </c>
       <c r="C21" s="2">
-        <v>8.9145218535214801E-5</v>
+        <v>8.8990028360985801E-5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,10 +640,10 @@
         <v>63.5</v>
       </c>
       <c r="B22" s="2">
-        <v>3.0609443852401601E-5</v>
+        <v>3.0792939443134503E-5</v>
       </c>
       <c r="C22" s="2">
-        <v>8.6215492858360203E-5</v>
+        <v>8.5971349641342701E-5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,10 +651,10 @@
         <v>66.674999999999997</v>
       </c>
       <c r="B23" s="2">
-        <v>3.6607025147418297E-5</v>
+        <v>3.6939687187798303E-5</v>
       </c>
       <c r="C23" s="2">
-        <v>8.0217911563350093E-5</v>
+        <v>7.9824601896679104E-5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,10 +662,10 @@
         <v>69.849999999999994</v>
       </c>
       <c r="B24" s="2">
-        <v>4.7344784802107699E-5</v>
+        <v>4.7829383333455899E-5</v>
       </c>
       <c r="C24" s="2">
-        <v>6.9480151908676304E-5</v>
+        <v>6.8934905751008295E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,10 +673,10 @@
         <v>73.025000000000006</v>
       </c>
       <c r="B25" s="2">
-        <v>6.2935188622041495E-5</v>
+        <v>6.3400362214919594E-5</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3889748088773401E-5</v>
+        <v>5.3363926869503502E-5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,10 +684,10 @@
         <v>76.2</v>
       </c>
       <c r="B26" s="2">
-        <v>8.0239152835207003E-5</v>
+        <v>8.0406066187264195E-5</v>
       </c>
       <c r="C26" s="2">
-        <v>3.6585783875646199E-5</v>
+        <v>3.6358222897050203E-5</v>
       </c>
     </row>
   </sheetData>
